--- a/biology/Botanique/Monostroma/Monostroma.xlsx
+++ b/biology/Botanique/Monostroma/Monostroma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monostroma est un genre d'algues vertes. 
 Ce sont des algues à structure palissadique, ayant la forme d'une feuille formée d'une couche unique de cellules (alors que les Ulves possèdent deux couches). Chaque cellule végétative possède un seul noyau et un seul chloroplaste.
@@ -513,15 +525,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 nov. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 nov. 2010) :
 Monostroma angicava
 Monostroma arcticum
 Monostroma grevillei
 Monostroma latissimum
 Monostroma nitidum
-Selon AlgaeBase                                           (12 nov. 2010)[2] :
+Selon AlgaeBase                                           (12 nov. 2010) :
 Monostroma alittoralis Tanaka &amp; K.Nozawa
 Monostroma angicava Kjellman
 Monostroma antarcticum V.J.Chapman
